--- a/WorkBot/main/backend/orders/OrderFiles/Equal Exchange/Equal Exchange_EASTHILL_20250307.xlsx
+++ b/WorkBot/main/backend/orders/OrderFiles/Equal Exchange/Equal Exchange_EASTHILL_20250307.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,12 +667,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>10034</t>
+          <t>10403</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Equal Exchange - Black Silk Espresso</t>
+          <t>Equal Exchange - Cold Brew</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -694,17 +694,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>10403</t>
+          <t>10018</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Equal Exchange - Cold Brew</t>
+          <t>Equal Exchange - Love Buzz</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -714,61 +714,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>143.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>10018</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Equal Exchange - Love Buzz</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
           <t>71.50</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>71.50</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>10400</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Equal Exchange - One World</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>71.50</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>286.00</t>
         </is>
       </c>
     </row>
